--- a/VerkefnataflaBurnDown.xlsx
+++ b/VerkefnataflaBurnDown.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="5715" windowHeight="7740" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="5715" windowHeight="7740"/>
   </bookViews>
   <sheets>
     <sheet name="Notendasögur" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
   <si>
     <t>Textentry</t>
   </si>
@@ -169,12 +169,69 @@
   <si>
     <t>Væntur tími eftir</t>
   </si>
+  <si>
+    <t>(8)</t>
+  </si>
+  <si>
+    <t>(9)</t>
+  </si>
+  <si>
+    <t>(11)</t>
+  </si>
+  <si>
+    <t>(10)</t>
+  </si>
+  <si>
+    <t>(12)</t>
+  </si>
+  <si>
+    <t>Nota útreikninga til þess að plotta línurit yfir gróða eða tap</t>
+  </si>
+  <si>
+    <t>(13)</t>
+  </si>
+  <si>
+    <t>(14)</t>
+  </si>
+  <si>
+    <t>(15)</t>
+  </si>
+  <si>
+    <t>(1)    (8)</t>
+  </si>
+  <si>
+    <t>(2)    (9)</t>
+  </si>
+  <si>
+    <t>(3)    (10)</t>
+  </si>
+  <si>
+    <t>(4)    (11)</t>
+  </si>
+  <si>
+    <t>(5)    (12)</t>
+  </si>
+  <si>
+    <t>(6)    (13)</t>
+  </si>
+  <si>
+    <t>(7)    (14)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          (15)</t>
+  </si>
+  <si>
+    <t>Ítrun 1</t>
+  </si>
+  <si>
+    <t>Ítrun 2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,13 +286,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -257,8 +322,13 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -266,17 +336,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -288,19 +388,26 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="5"/>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="1" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="4"/>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="2" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="2" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="8" fillId="5" borderId="1" xfId="5" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Calculation" xfId="5" builtinId="22"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="4" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -408,51 +515,51 @@
             <c:numRef>
               <c:f>'Burn-Down'!$A$2:$A$16</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="15"/>
-                <c:pt idx="0" formatCode="0">
-                  <c:v>2130</c:v>
+                <c:pt idx="0">
+                  <c:v>2070</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1978</c:v>
+                  <c:v>1922.1428571428571</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1826</c:v>
+                  <c:v>1774.2857142857142</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1674</c:v>
+                  <c:v>1626.4285714285713</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1522</c:v>
+                  <c:v>1478.5714285714284</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1370</c:v>
+                  <c:v>1330.7142857142856</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1218</c:v>
+                  <c:v>1182.8571428571427</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1066</c:v>
+                  <c:v>1034.9999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>914</c:v>
+                  <c:v>887.14285714285688</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>762</c:v>
+                  <c:v>739.28571428571399</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>610</c:v>
+                  <c:v>591.4285714285711</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>458</c:v>
+                  <c:v>443.57142857142821</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>306</c:v>
+                  <c:v>295.71428571428532</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                  <c:v>147.85714285714246</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -586,11 +693,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="153518848"/>
-        <c:axId val="153520384"/>
+        <c:axId val="138192768"/>
+        <c:axId val="138194304"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="153518848"/>
+        <c:axId val="138192768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -598,13 +705,13 @@
         <c:numFmt formatCode="d/m/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153520384"/>
+        <c:crossAx val="138194304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="153520384"/>
+        <c:axId val="138194304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -618,7 +725,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="153518848"/>
+        <c:crossAx val="138192768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -669,13 +776,416 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="is-IS"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="is-IS"/>
+              <a:t>Burn-Down</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Burn-Down'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Væntur tími eftir</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Burn-Down'!$C$2:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>d/m/yyyy</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>41668</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41669</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41670</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41671</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41672</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41673</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41674</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41675</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41676</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41677</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41678</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41679</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41680</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41681</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41682</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Burn-Down'!$A$2:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2070</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1922.1428571428571</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1774.2857142857142</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1626.4285714285713</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1478.5714285714284</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1330.7142857142856</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1182.8571428571427</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1034.9999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>887.14285714285688</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>739.28571428571399</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>591.4285714285711</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>443.57142857142821</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>295.71428571428532</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>147.85714285714246</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Burn-Down'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rauntími eftir</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Burn-Down'!$C$2:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>d/m/yyyy</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>41668</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41669</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41670</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41671</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41672</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41673</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41674</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41675</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41676</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41677</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41678</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41679</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41680</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41681</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41682</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Burn-Down'!$B$2:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2130</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2130</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2130</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2130</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2130</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2130</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2130</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2130</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2130</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2130</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2130</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2130</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2130</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="122686080"/>
+        <c:axId val="135541120"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="122686080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="d/m/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="135541120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="135541120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9525">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="122686080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:srgbClr val="5E9EFF"/>
+        </a:gs>
+        <a:gs pos="39999">
+          <a:srgbClr val="85C2FF"/>
+        </a:gs>
+        <a:gs pos="70000">
+          <a:srgbClr val="C4D6EB"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:srgbClr val="FFEBFA"/>
+        </a:gs>
+      </a:gsLst>
+      <a:lin ang="2700000" scaled="0"/>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln cap="rnd" cmpd="dbl">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+    </a:ln>
+    <a:effectLst>
+      <a:innerShdw blurRad="114300">
+        <a:prstClr val="black"/>
+      </a:innerShdw>
+    </a:effectLst>
+    <a:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </a:scene3d>
+    <a:sp3d>
+      <a:bevelT/>
+      <a:bevelB/>
+    </a:sp3d>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -995,340 +1505,542 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="97.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75">
+    <row r="1" spans="1:9" ht="18.75">
       <c r="B1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="12" t="s">
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="G2" s="6">
+        <f>C30</f>
+        <v>2070</v>
+      </c>
+      <c r="H2">
+        <v>2130</v>
+      </c>
+      <c r="I2" s="5">
+        <v>41668</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="19">
+        <v>120</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="6">
+        <f>G2-G19</f>
+        <v>1922.1428571428571</v>
+      </c>
+      <c r="H3">
+        <v>2130</v>
+      </c>
+      <c r="I3" s="5">
+        <v>41669</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="8">
+      <c r="B4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="19">
+        <v>30</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="6">
+        <f>G3-G19</f>
+        <v>1774.2857142857142</v>
+      </c>
+      <c r="H4">
+        <v>2130</v>
+      </c>
+      <c r="I4" s="5">
+        <v>41670</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="19">
+        <v>90</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="6">
+        <f>G4-G19</f>
+        <v>1626.4285714285713</v>
+      </c>
+      <c r="H5">
+        <v>2130</v>
+      </c>
+      <c r="I5" s="5">
+        <v>41671</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="9"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="6">
+        <f>G5-G19</f>
+        <v>1478.5714285714284</v>
+      </c>
+      <c r="H6">
+        <v>2130</v>
+      </c>
+      <c r="I6" s="5">
+        <v>41672</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="15"/>
+      <c r="B7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="19">
+        <v>270</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="6">
+        <f>G6-G19</f>
+        <v>1330.7142857142856</v>
+      </c>
+      <c r="H7">
+        <v>2130</v>
+      </c>
+      <c r="I7" s="5">
+        <v>41673</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="19">
+        <v>30</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="6">
+        <f>G7-G19</f>
+        <v>1182.8571428571427</v>
+      </c>
+      <c r="H8">
+        <v>2130</v>
+      </c>
+      <c r="I8" s="5">
+        <v>41674</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="19">
+        <v>60</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="6">
+        <f>G8-G19</f>
+        <v>1034.9999999999998</v>
+      </c>
+      <c r="H9">
+        <v>2130</v>
+      </c>
+      <c r="I9" s="5">
+        <v>41675</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="19">
+        <v>90</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="6">
+        <f>G9-G19</f>
+        <v>887.14285714285688</v>
+      </c>
+      <c r="H10">
+        <v>2130</v>
+      </c>
+      <c r="I10" s="5">
+        <v>41676</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="19">
+        <v>90</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="11"/>
+      <c r="G11" s="6">
+        <f>G10-G19</f>
+        <v>739.28571428571399</v>
+      </c>
+      <c r="H11">
+        <v>2130</v>
+      </c>
+      <c r="I11" s="5">
+        <v>41677</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="9"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="11"/>
+      <c r="G12" s="6">
+        <f>G11-G19</f>
+        <v>591.4285714285711</v>
+      </c>
+      <c r="H12">
+        <v>2130</v>
+      </c>
+      <c r="I12" s="5">
+        <v>41678</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="19">
+        <v>540</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="11"/>
+      <c r="G13" s="6">
+        <f>G12-G19</f>
+        <v>443.57142857142821</v>
+      </c>
+      <c r="H13">
+        <v>2130</v>
+      </c>
+      <c r="I13" s="5">
+        <v>41679</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="19">
         <v>180</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="11"/>
-      <c r="B4" t="s">
+      <c r="D14" s="6"/>
+      <c r="E14" s="11"/>
+      <c r="G14" s="6">
+        <f>G13-G19</f>
+        <v>295.71428571428532</v>
+      </c>
+      <c r="H14">
+        <v>2130</v>
+      </c>
+      <c r="I14" s="5">
+        <v>41680</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="19">
+        <v>210</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="11"/>
+      <c r="G15" s="6">
+        <f>G14-G19</f>
+        <v>147.85714285714246</v>
+      </c>
+      <c r="H15">
+        <v>2130</v>
+      </c>
+      <c r="I15" s="5">
+        <v>41681</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="19">
+        <v>150</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="11"/>
+      <c r="G16">
         <v>0</v>
       </c>
-      <c r="C4" s="8">
-        <v>30</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="11"/>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8">
-        <v>150</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="11"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="8">
-        <v>270</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="11"/>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="8">
-        <v>30</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="11"/>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="8">
-        <v>60</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="11"/>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="8">
-        <v>90</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="13"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="11"/>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="8">
-        <v>90</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="14"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="11"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="14"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="8">
-        <v>540</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="14"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="11"/>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="8">
+      <c r="H16">
+        <v>2130</v>
+      </c>
+      <c r="I16" s="5">
+        <v>41682</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="9"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="11"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="19">
         <v>180</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="14"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="11"/>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="8">
-        <v>210</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="14"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="11"/>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="8">
-        <v>150</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="14"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="11"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="14"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="8">
+      <c r="D18" s="6"/>
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="9"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="12"/>
+      <c r="G19">
+        <f>G2/14</f>
+        <v>147.85714285714286</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="16"/>
+      <c r="B20" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="18">
+        <v>360</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="12"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="18">
+        <v>120</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="12"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="18">
+        <v>240</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="12"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="D23" s="6"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="18">
+        <v>480</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="12"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="18">
         <v>180</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="14"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="11"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="15"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="8">
-        <v>360</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="15"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="11"/>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="15"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="11"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="15"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="8">
-        <v>480</v>
-      </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="11"/>
-      <c r="B24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="8">
-        <v>180</v>
-      </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="15"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="11"/>
-      <c r="B25" t="s">
+      <c r="D25" s="6"/>
+      <c r="E25" s="12"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C26" s="18">
         <v>300</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="15"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="11"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="15"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="2" t="s">
+      <c r="D26" s="6"/>
+      <c r="E26" s="12"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="9"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C28" s="18">
         <v>120</v>
       </c>
-      <c r="D27" s="8"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="C29" s="8">
-        <f>SUM(C3,C7,C13,C18,C20,C23,C27)</f>
-        <v>2130</v>
-      </c>
-      <c r="D29" s="16" t="s">
+    </row>
+    <row r="29" spans="1:9">
+      <c r="D29" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="4"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="D30" s="16" t="s">
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="B30" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="6">
+        <f>SUM(C3,C7,C13,C18,C20,C24,C28)</f>
+        <v>2070</v>
+      </c>
+      <c r="D30" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="6"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="D31" s="16" t="s">
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="B31" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E31" s="5"/>
+      <c r="E31" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1339,167 +2051,180 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="8">
-        <v>2130</v>
+      <c r="A2" s="6">
+        <v>2070</v>
       </c>
       <c r="B2">
         <v>2130</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="5">
         <v>41668</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3">
-        <v>1978</v>
+      <c r="A3" s="6">
+        <f>A2-A19</f>
+        <v>1922.1428571428571</v>
       </c>
       <c r="B3">
         <v>2130</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="5">
         <v>41669</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4">
-        <v>1826</v>
+      <c r="A4" s="6">
+        <f>A3-A19</f>
+        <v>1774.2857142857142</v>
       </c>
       <c r="B4">
         <v>2130</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="5">
         <v>41670</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5">
-        <v>1674</v>
+      <c r="A5" s="6">
+        <f>A4-A19</f>
+        <v>1626.4285714285713</v>
       </c>
       <c r="B5">
         <v>2130</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="5">
         <v>41671</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6">
-        <v>1522</v>
+      <c r="A6" s="6">
+        <f>A5-A19</f>
+        <v>1478.5714285714284</v>
       </c>
       <c r="B6">
         <v>2130</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="5">
         <v>41672</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7">
-        <v>1370</v>
+      <c r="A7" s="6">
+        <f>A6-A19</f>
+        <v>1330.7142857142856</v>
       </c>
       <c r="B7">
         <v>2130</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="5">
         <v>41673</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8">
-        <v>1218</v>
+      <c r="A8" s="6">
+        <f>A7-A19</f>
+        <v>1182.8571428571427</v>
       </c>
       <c r="B8">
         <v>2130</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="5">
         <v>41674</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9">
-        <v>1066</v>
+      <c r="A9" s="6">
+        <f>A8-A19</f>
+        <v>1034.9999999999998</v>
       </c>
       <c r="B9">
         <v>2130</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="5">
         <v>41675</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10">
-        <v>914</v>
+      <c r="A10" s="6">
+        <f>A9-A19</f>
+        <v>887.14285714285688</v>
       </c>
       <c r="B10">
         <v>2130</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="5">
         <v>41676</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11">
-        <v>762</v>
+      <c r="A11" s="6">
+        <f>A10-A19</f>
+        <v>739.28571428571399</v>
       </c>
       <c r="B11">
         <v>2130</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="5">
         <v>41677</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12">
-        <v>610</v>
+      <c r="A12" s="6">
+        <f>A11-A19</f>
+        <v>591.4285714285711</v>
       </c>
       <c r="B12">
         <v>2130</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="5">
         <v>41678</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13">
-        <v>458</v>
+      <c r="A13" s="6">
+        <f>A12-A19</f>
+        <v>443.57142857142821</v>
       </c>
       <c r="B13">
         <v>2130</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="5">
         <v>41679</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14">
-        <v>306</v>
+      <c r="A14" s="6">
+        <f>A13-A19</f>
+        <v>295.71428571428532</v>
       </c>
       <c r="B14">
         <v>2130</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="5">
         <v>41680</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15">
-        <v>154</v>
+      <c r="A15" s="6">
+        <f>A14-A19</f>
+        <v>147.85714285714246</v>
       </c>
       <c r="B15">
         <v>2130</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="5">
         <v>41681</v>
       </c>
     </row>
@@ -1510,12 +2235,18 @@
       <c r="B16">
         <v>2130</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="5">
         <v>41682</v>
       </c>
     </row>
-    <row r="17" spans="3:3">
-      <c r="C17" s="7"/>
+    <row r="17" spans="1:3">
+      <c r="C17" s="5"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <f>2070/14</f>
+        <v>147.85714285714286</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VerkefnataflaBurnDown.xlsx
+++ b/VerkefnataflaBurnDown.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="5715" windowHeight="7740"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="5715" windowHeight="7740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Notendasögur" sheetId="1" r:id="rId1"/>
-    <sheet name="Burn-Down" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Fallaforritun" sheetId="3" r:id="rId2"/>
+    <sheet name="Burn-Down" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
   <si>
     <t>Textentry</t>
   </si>
@@ -225,6 +225,64 @@
   </si>
   <si>
     <t>Ítrun 2</t>
+  </si>
+  <si>
+    <t>Klasi</t>
+  </si>
+  <si>
+    <t>Lýsing</t>
+  </si>
+  <si>
+    <t>Já</t>
+  </si>
+  <si>
+    <t>AccountType.py</t>
+  </si>
+  <si>
+    <t>Klasi sem heldur utan um mismunandi reikninga sem eru lesnir úr skrá.</t>
+  </si>
+  <si>
+    <t>calcLoanFun.py</t>
+  </si>
+  <si>
+    <t>sem segir til um hvað á eftir að borga af láninu</t>
+  </si>
+  <si>
+    <r>
+      <t>Inniheldur</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Loan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sem sér um helstu upplýsingar hvers láns og </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>calcLoan</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -693,11 +751,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="138192768"/>
-        <c:axId val="138194304"/>
+        <c:axId val="119200384"/>
+        <c:axId val="122356096"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="138192768"/>
+        <c:axId val="119200384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -705,13 +763,13 @@
         <c:numFmt formatCode="d/m/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138194304"/>
+        <c:crossAx val="122356096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="138194304"/>
+        <c:axId val="122356096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -725,7 +783,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="138192768"/>
+        <c:crossAx val="119200384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -776,7 +834,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1061,11 +1119,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="122686080"/>
-        <c:axId val="135541120"/>
+        <c:axId val="122385920"/>
+        <c:axId val="122387456"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="122686080"/>
+        <c:axId val="122385920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1073,13 +1131,13 @@
         <c:numFmt formatCode="d/m/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135541120"/>
+        <c:crossAx val="122387456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="135541120"/>
+        <c:axId val="122387456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1093,7 +1151,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="122686080"/>
+        <c:crossAx val="122385920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1144,7 +1202,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1218,6 +1276,18 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C41" totalsRowShown="0">
+  <autoFilter ref="A1:C41"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Klasi"/>
+    <tableColumn id="2" name="Lýsing"/>
+    <tableColumn id="3" name="Já"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1507,8 +1577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="U25" sqref="T25:U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2037,10 +2107,65 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:Q19"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2252,16 +2377,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/VerkefnataflaBurnDown.xlsx
+++ b/VerkefnataflaBurnDown.xlsx
@@ -4,22 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="5715" windowHeight="7740" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="5715" windowHeight="7740"/>
   </bookViews>
   <sheets>
     <sheet name="Notendasögur" sheetId="1" r:id="rId1"/>
     <sheet name="Fallaforritun" sheetId="3" r:id="rId2"/>
-    <sheet name="Burn-Down" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
-  <si>
-    <t>Textentry</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="72">
   <si>
     <t>Validator á input</t>
   </si>
@@ -27,13 +23,7 @@
     <t>Nokkur textentry</t>
   </si>
   <si>
-    <t>Dropdown menu lána</t>
-  </si>
-  <si>
     <t>Validator</t>
-  </si>
-  <si>
-    <t>Velja tegund láns</t>
   </si>
   <si>
     <t>Notandi vill geta séð hagnaðinn á því að leggja fyrir</t>
@@ -104,9 +94,6 @@
     <t>Notandi vill geta reiknað út hvaða leið er best til að greiða lánið sitt miðað við mánaðarlegan sparnað sinn.</t>
   </si>
   <si>
-    <t xml:space="preserve">Textentry fyrir sinn eigin reikning </t>
-  </si>
-  <si>
     <t>Notandi vill geta séð hversu lengi hann er að safna ákveðinni upphæð.</t>
   </si>
   <si>
@@ -119,12 +106,6 @@
     <t>Rauntími (mín)</t>
   </si>
   <si>
-    <t>Notandi vill geta reiknað ávöxtun á mánaðarlegum sparnaði miðað við eitthvað tímabil</t>
-  </si>
-  <si>
-    <t>Verðtrygging/Óverðtryggt/Vextir</t>
-  </si>
-  <si>
     <t>Rauntími eftir</t>
   </si>
   <si>
@@ -134,27 +115,6 @@
     <t xml:space="preserve">Notandi vill geta slegið inn lánin sín                </t>
   </si>
   <si>
-    <t>(1)</t>
-  </si>
-  <si>
-    <t>(2)</t>
-  </si>
-  <si>
-    <t>(3)</t>
-  </si>
-  <si>
-    <t>(4)</t>
-  </si>
-  <si>
-    <t>(5)</t>
-  </si>
-  <si>
-    <t>(6)</t>
-  </si>
-  <si>
-    <t>(7)</t>
-  </si>
-  <si>
     <t>Í byrjunarstöðu</t>
   </si>
   <si>
@@ -164,63 +124,12 @@
     <t>Nánast búið</t>
   </si>
   <si>
-    <t xml:space="preserve">Notandi vill geta slegið inn mánaðargreiðslu   </t>
-  </si>
-  <si>
     <t>Væntur tími eftir</t>
   </si>
   <si>
-    <t>(8)</t>
-  </si>
-  <si>
-    <t>(9)</t>
-  </si>
-  <si>
-    <t>(11)</t>
-  </si>
-  <si>
-    <t>(10)</t>
-  </si>
-  <si>
-    <t>(12)</t>
-  </si>
-  <si>
     <t>Nota útreikninga til þess að plotta línurit yfir gróða eða tap</t>
   </si>
   <si>
-    <t>(13)</t>
-  </si>
-  <si>
-    <t>(14)</t>
-  </si>
-  <si>
-    <t>(15)</t>
-  </si>
-  <si>
-    <t>(1)    (8)</t>
-  </si>
-  <si>
-    <t>(2)    (9)</t>
-  </si>
-  <si>
-    <t>(3)    (10)</t>
-  </si>
-  <si>
-    <t>(4)    (11)</t>
-  </si>
-  <si>
-    <t>(5)    (12)</t>
-  </si>
-  <si>
-    <t>(6)    (13)</t>
-  </si>
-  <si>
-    <t>(7)    (14)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          (15)</t>
-  </si>
-  <si>
     <t>Ítrun 1</t>
   </si>
   <si>
@@ -243,9 +152,6 @@
   </si>
   <si>
     <t>calcLoanFun.py</t>
-  </si>
-  <si>
-    <t>sem segir til um hvað á eftir að borga af láninu</t>
   </si>
   <si>
     <r>
@@ -284,12 +190,132 @@
       <t>calcLoan</t>
     </r>
   </si>
+  <si>
+    <t>fjarmal.py</t>
+  </si>
+  <si>
+    <t>inflation.py</t>
+  </si>
+  <si>
+    <t>Sér um reikninga varðandi verðbólgu, þarf að lesa úr visitala.txt og finnur</t>
+  </si>
+  <si>
+    <t>meðaltal af verðbólgu þeirra mánaða sem eru valdir.</t>
+  </si>
+  <si>
+    <t>Viðmót forritsins.</t>
+  </si>
+  <si>
+    <t>sem segir til um hvað á eftir að borga af láninu.</t>
+  </si>
+  <si>
+    <t>Account.py</t>
+  </si>
+  <si>
+    <t>Aðalforritið, keyrir allt.</t>
+  </si>
+  <si>
+    <t>Útreikningar fyrir innlánsreikninga.</t>
+  </si>
+  <si>
+    <t>Notandi vill geta slegið inn mánaðargreiðslu   (Greiðslugeta)</t>
+  </si>
+  <si>
+    <t>Dropdown menu/Fylla út í form</t>
+  </si>
+  <si>
+    <t>Velja tegund láns.  Upphafsstilla lánsbreytur</t>
+  </si>
+  <si>
+    <t>Dropdown menu lána.  Yfirlit yfir lán notanda</t>
+  </si>
+  <si>
+    <t>Reikna ávöxtun á mánaðarlegum sparnaði á ákveðnu tímabili</t>
+  </si>
+  <si>
+    <t>Skipulagning</t>
+  </si>
+  <si>
+    <t>Skipulaging</t>
+  </si>
+  <si>
+    <t>Búa til verðbólguspá</t>
+  </si>
+  <si>
+    <t>Lesa inn gögn</t>
+  </si>
+  <si>
+    <t>Teikna viðmót</t>
+  </si>
+  <si>
+    <t>Notandi vill geta notað notandaviðmót</t>
+  </si>
+  <si>
+    <t>Skipulagning viðmóts</t>
+  </si>
+  <si>
+    <t>Ákvarðanataka forritasafns</t>
+  </si>
+  <si>
+    <t>Forritun viðmóts</t>
+  </si>
+  <si>
+    <t>Almenn tenging við viðmót</t>
+  </si>
+  <si>
+    <t>Önnur tenging við viðmót</t>
+  </si>
+  <si>
+    <t>Verðtrygging/Óverðtryggt/Vextir - reikningar</t>
+  </si>
+  <si>
+    <t>Textentry fyrir sinn eigin reikning og virkni</t>
+  </si>
+  <si>
+    <t>Lokið</t>
+  </si>
+  <si>
+    <t>Notandi vill geta slegið inn mánaðargreiðslu</t>
+  </si>
+  <si>
+    <t>Notandi vill geta séð lánin sín</t>
+  </si>
+  <si>
+    <t>Notandi vill geta reiknað út hvaða leið er best til að borga lánin sín</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>wxgui2.py</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -353,6 +379,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -433,7 +466,7 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
@@ -453,11 +486,19 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="5"/>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="1" xfId="5" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="4"/>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="2" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="7" fillId="5" borderId="2" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="8" fillId="5" borderId="1" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="8" fillId="5" borderId="1" xfId="5" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -502,22 +543,14 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'Burn-Down'!$A$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Væntur tími eftir</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Væntur tími eftir</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Burn-Down'!$C$2:$C$16</c:f>
+              <c:f>Notendasögur!$I$2:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>d/m/yyyy</c:formatCode>
                 <c:ptCount val="15"/>
@@ -571,51 +604,51 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burn-Down'!$A$2:$A$16</c:f>
+              <c:f>Notendasögur!$G$2:$G$16</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>2070</c:v>
+                  <c:v>3120</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1922.1428571428571</c:v>
+                  <c:v>2897.1428571428573</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1774.2857142857142</c:v>
+                  <c:v>2674.2857142857147</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1626.4285714285713</c:v>
+                  <c:v>2451.428571428572</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1478.5714285714284</c:v>
+                  <c:v>2228.5714285714294</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1330.7142857142856</c:v>
+                  <c:v>2005.7142857142865</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1182.8571428571427</c:v>
+                  <c:v>1782.8571428571436</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1034.9999999999998</c:v>
+                  <c:v>1560.0000000000007</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>887.14285714285688</c:v>
+                  <c:v>1337.1428571428578</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>739.28571428571399</c:v>
+                  <c:v>1114.2857142857149</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>591.4285714285711</c:v>
+                  <c:v>891.42857142857201</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>443.57142857142821</c:v>
+                  <c:v>668.57142857142912</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>295.71428571428532</c:v>
+                  <c:v>445.71428571428623</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>147.85714285714246</c:v>
+                  <c:v>222.85714285714337</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="General">
                   <c:v>0</c:v>
@@ -628,22 +661,14 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'Burn-Down'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Rauntími eftir</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Rauntími eftir</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Burn-Down'!$C$2:$C$16</c:f>
+              <c:f>Notendasögur!$I$2:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>d/m/yyyy</c:formatCode>
                 <c:ptCount val="15"/>
@@ -697,54 +722,54 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burn-Down'!$B$2:$B$16</c:f>
+              <c:f>Notendasögur!$H$2:$H$16</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>2130</c:v>
+                  <c:v>3120</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2130</c:v>
+                  <c:v>3120</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2130</c:v>
+                  <c:v>3120</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2130</c:v>
+                  <c:v>2430</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2130</c:v>
+                  <c:v>2430</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2130</c:v>
+                  <c:v>2430</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2130</c:v>
+                  <c:v>1650</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2130</c:v>
+                  <c:v>1650</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2130</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2130</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2130</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2130</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2130</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2130</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2130</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -840,374 +865,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="is-IS"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="is-IS"/>
-              <a:t>Burn-Down</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Burn-Down'!$A$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Væntur tími eftir</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Burn-Down'!$C$2:$C$16</c:f>
-              <c:numCache>
-                <c:formatCode>d/m/yyyy</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>41668</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>41669</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>41670</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>41671</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>41672</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>41673</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>41674</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>41675</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>41676</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>41677</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>41678</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>41679</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>41680</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>41681</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>41682</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Burn-Down'!$A$2:$A$16</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>2070</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1922.1428571428571</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1774.2857142857142</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1626.4285714285713</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1478.5714285714284</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1330.7142857142856</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1182.8571428571427</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1034.9999999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>887.14285714285688</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>739.28571428571399</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>591.4285714285711</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>443.57142857142821</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>295.71428571428532</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>147.85714285714246</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Burn-Down'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Rauntími eftir</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Burn-Down'!$C$2:$C$16</c:f>
-              <c:numCache>
-                <c:formatCode>d/m/yyyy</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>41668</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>41669</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>41670</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>41671</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>41672</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>41673</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>41674</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>41675</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>41676</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>41677</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>41678</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>41679</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>41680</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>41681</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>41682</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Burn-Down'!$B$2:$B$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>2130</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2130</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2130</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2130</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2130</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2130</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2130</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2130</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2130</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2130</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2130</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2130</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2130</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2130</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2130</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="122385920"/>
-        <c:axId val="122387456"/>
-      </c:lineChart>
-      <c:dateAx>
-        <c:axId val="122385920"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="d/m/yyyy" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122387456"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-      </c:dateAx>
-      <c:valAx>
-        <c:axId val="122387456"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9525">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="122385920"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:srgbClr val="5E9EFF"/>
-        </a:gs>
-        <a:gs pos="39999">
-          <a:srgbClr val="85C2FF"/>
-        </a:gs>
-        <a:gs pos="70000">
-          <a:srgbClr val="C4D6EB"/>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:srgbClr val="FFEBFA"/>
-        </a:gs>
-      </a:gsLst>
-      <a:lin ang="2700000" scaled="0"/>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln cap="rnd" cmpd="dbl">
-      <a:solidFill>
-        <a:schemeClr val="tx1"/>
-      </a:solidFill>
-    </a:ln>
-    <a:effectLst>
-      <a:innerShdw blurRad="114300">
-        <a:prstClr val="black"/>
-      </a:innerShdw>
-    </a:effectLst>
-    <a:scene3d>
-      <a:camera prst="orthographicFront"/>
-      <a:lightRig rig="threePt" dir="t"/>
-    </a:scene3d>
-    <a:sp3d>
-      <a:bevelT/>
-      <a:bevelB/>
-    </a:sp3d>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1219,41 +876,6 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -1575,10 +1197,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="U25" sqref="T25:U25"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1588,7 +1210,7 @@
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="60.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
@@ -1596,35 +1218,37 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18.75">
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="G2" s="6">
-        <f>C30</f>
-        <v>2070</v>
-      </c>
-      <c r="H2">
-        <v>2130</v>
+        <f>C46</f>
+        <v>3120</v>
+      </c>
+      <c r="H2" s="6">
+        <v>3120</v>
       </c>
       <c r="I2" s="5">
         <v>41668</v>
@@ -1633,471 +1257,641 @@
     <row r="3" spans="1:9">
       <c r="A3" s="14"/>
       <c r="B3" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="19">
-        <v>120</v>
+        <v>51</v>
+      </c>
+      <c r="C3" s="14">
+        <f>SUM(C4:C7)</f>
+        <v>690</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="10" t="s">
-        <v>45</v>
+        <v>63</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>51</v>
       </c>
       <c r="G3" s="6">
         <f>G2-G19</f>
-        <v>1922.1428571428571</v>
-      </c>
-      <c r="H3">
-        <v>2130</v>
+        <v>2897.1428571428573</v>
+      </c>
+      <c r="H3" s="6">
+        <v>3120</v>
       </c>
       <c r="I3" s="5">
         <v>41669</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="15" t="s">
-        <v>24</v>
+      <c r="A4" s="14">
+        <v>1</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="19">
-        <v>30</v>
+        <v>52</v>
+      </c>
+      <c r="C4" s="14">
+        <v>180</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="10" t="s">
-        <v>46</v>
+        <v>64</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>60</v>
       </c>
       <c r="G4" s="6">
         <f>G3-G19</f>
-        <v>1774.2857142857142</v>
-      </c>
-      <c r="H4">
-        <v>2130</v>
+        <v>2674.2857142857147</v>
+      </c>
+      <c r="H4" s="6">
+        <v>3120</v>
       </c>
       <c r="I4" s="5">
         <v>41670</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="15" t="s">
-        <v>25</v>
+      <c r="A5" s="14">
+        <v>2</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="19">
-        <v>90</v>
+        <v>53</v>
+      </c>
+      <c r="C5" s="14">
+        <v>120</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="10" t="s">
-        <v>47</v>
+        <v>65</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>61</v>
       </c>
       <c r="G5" s="6">
         <f>G4-G19</f>
-        <v>1626.4285714285713</v>
-      </c>
-      <c r="H5">
-        <v>2130</v>
+        <v>2451.428571428572</v>
+      </c>
+      <c r="H5" s="6">
+        <v>2430</v>
       </c>
       <c r="I5" s="5">
         <v>41671</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="9"/>
-      <c r="C6" s="6"/>
+      <c r="A6" s="14">
+        <v>3</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="14">
+        <v>90</v>
+      </c>
       <c r="D6" s="6"/>
       <c r="E6" s="10" t="s">
-        <v>48</v>
+        <v>66</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>62</v>
       </c>
       <c r="G6" s="6">
         <f>G5-G19</f>
-        <v>1478.5714285714284</v>
-      </c>
-      <c r="H6">
-        <v>2130</v>
+        <v>2228.5714285714294</v>
+      </c>
+      <c r="H6" s="6">
+        <v>2430</v>
       </c>
       <c r="I6" s="5">
         <v>41672</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="15"/>
+      <c r="A7" s="14">
+        <v>4</v>
+      </c>
       <c r="B7" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="19">
-        <v>270</v>
+        <v>54</v>
+      </c>
+      <c r="C7" s="14">
+        <v>300</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="10" t="s">
-        <v>49</v>
+        <v>67</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>5</v>
       </c>
       <c r="G7" s="6">
         <f>G6-G19</f>
-        <v>1330.7142857142856</v>
-      </c>
-      <c r="H7">
-        <v>2130</v>
+        <v>2005.7142857142865</v>
+      </c>
+      <c r="H7" s="6">
+        <v>2430</v>
       </c>
       <c r="I7" s="5">
         <v>41673</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="19">
-        <v>30</v>
-      </c>
       <c r="D8" s="6"/>
       <c r="E8" s="10" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="G8" s="6">
         <f>G7-G19</f>
-        <v>1182.8571428571427</v>
-      </c>
-      <c r="H8">
-        <v>2130</v>
+        <v>1782.8571428571436</v>
+      </c>
+      <c r="H8" s="6">
+        <v>1650</v>
       </c>
       <c r="I8" s="5">
         <v>41674</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="15" t="s">
-        <v>27</v>
-      </c>
+      <c r="A9" s="18"/>
       <c r="B9" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="19">
-        <v>60</v>
+        <v>41</v>
+      </c>
+      <c r="C9" s="17">
+        <f>SUM(C10:C12)</f>
+        <v>360</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="10" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="G9" s="6">
         <f>G8-G19</f>
-        <v>1034.9999999999998</v>
-      </c>
-      <c r="H9">
-        <v>2130</v>
+        <v>1560.0000000000007</v>
+      </c>
+      <c r="H9" s="6">
+        <v>1650</v>
       </c>
       <c r="I9" s="5">
         <v>41675</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="15" t="s">
-        <v>28</v>
+      <c r="A10" s="18">
+        <v>5</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="19">
-        <v>90</v>
+        <v>55</v>
+      </c>
+      <c r="C10" s="17">
+        <v>120</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="10" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="G10" s="6">
         <f>G9-G19</f>
-        <v>887.14285714285688</v>
-      </c>
-      <c r="H10">
-        <v>2130</v>
+        <v>1337.1428571428578</v>
+      </c>
+      <c r="H10" s="6">
+        <v>480</v>
       </c>
       <c r="I10" s="5">
         <v>41676</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="15" t="s">
-        <v>29</v>
+      <c r="A11" s="18">
+        <v>6</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="19">
-        <v>90</v>
+        <v>0</v>
+      </c>
+      <c r="C11" s="17">
+        <v>180</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="11"/>
       <c r="G11" s="6">
         <f>G10-G19</f>
-        <v>739.28571428571399</v>
-      </c>
-      <c r="H11">
-        <v>2130</v>
+        <v>1114.2857142857149</v>
+      </c>
+      <c r="H11" s="6">
+        <v>480</v>
       </c>
       <c r="I11" s="5">
         <v>41677</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="9"/>
-      <c r="C12" s="6"/>
+      <c r="A12" s="18">
+        <v>7</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="17">
+        <v>60</v>
+      </c>
       <c r="D12" s="6"/>
       <c r="E12" s="11"/>
       <c r="G12" s="6">
         <f>G11-G19</f>
-        <v>591.4285714285711</v>
-      </c>
-      <c r="H12">
-        <v>2130</v>
+        <v>891.42857142857201</v>
+      </c>
+      <c r="H12" s="6">
+        <v>480</v>
       </c>
       <c r="I12" s="5">
         <v>41678</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="19">
-        <v>540</v>
-      </c>
+      <c r="A13" s="19"/>
       <c r="D13" s="6"/>
       <c r="E13" s="11"/>
       <c r="G13" s="6">
         <f>G12-G19</f>
-        <v>443.57142857142821</v>
-      </c>
-      <c r="H13">
-        <v>2130</v>
+        <v>668.57142857142912</v>
+      </c>
+      <c r="H13" s="6">
+        <v>480</v>
       </c>
       <c r="I13" s="5">
         <v>41679</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="15" t="s">
-        <v>30</v>
-      </c>
+      <c r="A14" s="18"/>
       <c r="B14" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="19">
-        <v>180</v>
+        <v>17</v>
+      </c>
+      <c r="C14" s="17">
+        <f>SUM(C15:C20)</f>
+        <v>420</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="11"/>
       <c r="G14" s="6">
         <f>G13-G19</f>
-        <v>295.71428571428532</v>
-      </c>
-      <c r="H14">
-        <v>2130</v>
+        <v>445.71428571428623</v>
+      </c>
+      <c r="H14" s="6">
+        <v>480</v>
       </c>
       <c r="I14" s="5">
         <v>41680</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="15" t="s">
-        <v>36</v>
+      <c r="A15" s="18">
+        <v>8</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="19">
-        <v>210</v>
+        <v>1</v>
+      </c>
+      <c r="C15" s="17">
+        <v>30</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="11"/>
       <c r="G15" s="6">
         <f>G14-G19</f>
-        <v>147.85714285714246</v>
-      </c>
-      <c r="H15">
-        <v>2130</v>
+        <v>222.85714285714337</v>
+      </c>
+      <c r="H15" s="6">
+        <v>480</v>
       </c>
       <c r="I15" s="5">
         <v>41681</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="15" t="s">
-        <v>37</v>
+      <c r="A16" s="18">
+        <v>9</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="19">
-        <v>150</v>
+        <v>44</v>
+      </c>
+      <c r="C16" s="17">
+        <v>60</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="11"/>
       <c r="G16">
         <v>0</v>
       </c>
-      <c r="H16">
-        <v>2130</v>
+      <c r="H16" s="6">
+        <v>480</v>
       </c>
       <c r="I16" s="5">
         <v>41682</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="9"/>
-      <c r="C17" s="6"/>
+      <c r="A17" s="18">
+        <v>10</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="17">
+        <v>90</v>
+      </c>
       <c r="D17" s="6"/>
       <c r="E17" s="11"/>
       <c r="I17" s="5"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="15" t="s">
-        <v>39</v>
+      <c r="A18" s="18">
+        <v>11</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="19">
-        <v>180</v>
+        <v>43</v>
+      </c>
+      <c r="C18" s="17">
+        <v>90</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="9"/>
-      <c r="C19" s="6"/>
+      <c r="A19" s="18">
+        <v>12</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="17">
+        <v>90</v>
+      </c>
       <c r="D19" s="6"/>
       <c r="E19" s="12"/>
       <c r="G19">
         <f>G2/14</f>
-        <v>147.85714285714286</v>
+        <v>222.85714285714286</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="18">
-        <v>360</v>
+      <c r="A20" s="18">
+        <v>13</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="14">
+        <v>60</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="12"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="18">
-        <v>120</v>
-      </c>
+      <c r="A21" s="19"/>
       <c r="D21" s="6"/>
       <c r="E21" s="12"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="18">
-        <v>240</v>
+      <c r="A22" s="18"/>
+      <c r="B22" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="17">
+        <f>SUM(C23:C25)</f>
+        <v>900</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="12"/>
     </row>
     <row r="23" spans="1:9">
+      <c r="A23" s="18">
+        <v>14</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="17">
+        <v>180</v>
+      </c>
       <c r="D23" s="6"/>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="18">
-        <v>480</v>
+      <c r="A24" s="18">
+        <v>15</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="17">
+        <v>600</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="12"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="18">
-        <v>180</v>
+      <c r="A25" s="18">
+        <v>16</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="14">
+        <v>120</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="12"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="18">
-        <v>300</v>
-      </c>
+      <c r="A26" s="19"/>
       <c r="D26" s="6"/>
       <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="9"/>
-      <c r="C27" s="6"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="14">
+        <f>SUM(C28:C30)</f>
+        <v>270</v>
+      </c>
       <c r="D27" s="6"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="18">
+      <c r="A28" s="18">
+        <v>17</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="14">
         <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:9">
+      <c r="A29" s="18">
+        <v>18</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="14">
+        <v>90</v>
+      </c>
       <c r="D29" s="13" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:9">
+      <c r="A30" s="18">
+        <v>19</v>
+      </c>
       <c r="B30" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="6">
-        <f>SUM(C3,C7,C13,C18,C20,C24,C28)</f>
-        <v>2070</v>
+        <v>49</v>
+      </c>
+      <c r="C30" s="14">
+        <v>60</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="B31" s="16" t="s">
-        <v>54</v>
-      </c>
+      <c r="A31" s="19"/>
       <c r="D31" s="13" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="20"/>
+      <c r="B32" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="16">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="20">
+        <v>20</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="16">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="20">
+        <v>21</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="16">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="20">
+        <v>22</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="16">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="19"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="20"/>
+      <c r="B37" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="16">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="20">
+        <v>23</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="16">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="20">
+        <v>24</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="16">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="20">
+        <v>25</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="16">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="20">
+        <v>26</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="16">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="19"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="20">
+        <v>27</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="16">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="B46" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="6">
+        <f>SUM(C9,C14,C22,C27,C32,C37,C43)</f>
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="B47" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="9"/>
+      <c r="C49" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2107,10 +1901,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2122,34 +1916,71 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" t="s">
-        <v>61</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2158,223 +1989,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="18.75">
-      <c r="A1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="6">
-        <v>2070</v>
-      </c>
-      <c r="B2">
-        <v>2130</v>
-      </c>
-      <c r="C2" s="5">
-        <v>41668</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="6">
-        <f>A2-A19</f>
-        <v>1922.1428571428571</v>
-      </c>
-      <c r="B3">
-        <v>2130</v>
-      </c>
-      <c r="C3" s="5">
-        <v>41669</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="6">
-        <f>A3-A19</f>
-        <v>1774.2857142857142</v>
-      </c>
-      <c r="B4">
-        <v>2130</v>
-      </c>
-      <c r="C4" s="5">
-        <v>41670</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="6">
-        <f>A4-A19</f>
-        <v>1626.4285714285713</v>
-      </c>
-      <c r="B5">
-        <v>2130</v>
-      </c>
-      <c r="C5" s="5">
-        <v>41671</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="6">
-        <f>A5-A19</f>
-        <v>1478.5714285714284</v>
-      </c>
-      <c r="B6">
-        <v>2130</v>
-      </c>
-      <c r="C6" s="5">
-        <v>41672</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="6">
-        <f>A6-A19</f>
-        <v>1330.7142857142856</v>
-      </c>
-      <c r="B7">
-        <v>2130</v>
-      </c>
-      <c r="C7" s="5">
-        <v>41673</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="6">
-        <f>A7-A19</f>
-        <v>1182.8571428571427</v>
-      </c>
-      <c r="B8">
-        <v>2130</v>
-      </c>
-      <c r="C8" s="5">
-        <v>41674</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="6">
-        <f>A8-A19</f>
-        <v>1034.9999999999998</v>
-      </c>
-      <c r="B9">
-        <v>2130</v>
-      </c>
-      <c r="C9" s="5">
-        <v>41675</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="6">
-        <f>A9-A19</f>
-        <v>887.14285714285688</v>
-      </c>
-      <c r="B10">
-        <v>2130</v>
-      </c>
-      <c r="C10" s="5">
-        <v>41676</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="6">
-        <f>A10-A19</f>
-        <v>739.28571428571399</v>
-      </c>
-      <c r="B11">
-        <v>2130</v>
-      </c>
-      <c r="C11" s="5">
-        <v>41677</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="6">
-        <f>A11-A19</f>
-        <v>591.4285714285711</v>
-      </c>
-      <c r="B12">
-        <v>2130</v>
-      </c>
-      <c r="C12" s="5">
-        <v>41678</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="6">
-        <f>A12-A19</f>
-        <v>443.57142857142821</v>
-      </c>
-      <c r="B13">
-        <v>2130</v>
-      </c>
-      <c r="C13" s="5">
-        <v>41679</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="6">
-        <f>A13-A19</f>
-        <v>295.71428571428532</v>
-      </c>
-      <c r="B14">
-        <v>2130</v>
-      </c>
-      <c r="C14" s="5">
-        <v>41680</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="6">
-        <f>A14-A19</f>
-        <v>147.85714285714246</v>
-      </c>
-      <c r="B15">
-        <v>2130</v>
-      </c>
-      <c r="C15" s="5">
-        <v>41681</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
-        <v>0</v>
-      </c>
-      <c r="B16">
-        <v>2130</v>
-      </c>
-      <c r="C16" s="5">
-        <v>41682</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" s="5"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19">
-        <f>2070/14</f>
-        <v>147.85714285714286</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/VerkefnataflaBurnDown.xlsx
+++ b/VerkefnataflaBurnDown.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="75" windowWidth="5715" windowHeight="7740"/>
@@ -10,7 +10,7 @@
     <sheet name="Notendasögur" sheetId="1" r:id="rId1"/>
     <sheet name="Fallaforritun" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -314,8 +314,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -510,12 +510,27 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="is-IS"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -534,11 +549,14 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -552,7 +570,7 @@
             <c:numRef>
               <c:f>Notendasögur!$I$2:$I$16</c:f>
               <c:numCache>
-                <c:formatCode>d/m/yyyy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>41668</c:v>
@@ -656,6 +674,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -670,7 +689,7 @@
             <c:numRef>
               <c:f>Notendasögur!$I$2:$I$16</c:f>
               <c:numCache>
-                <c:formatCode>d/m/yyyy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>41668</c:v>
@@ -774,41 +793,56 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="119200384"/>
-        <c:axId val="122356096"/>
+        <c:smooth val="0"/>
+        <c:axId val="49105920"/>
+        <c:axId val="49107712"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="119200384"/>
+        <c:axId val="49105920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="d/m/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122356096"/>
+        <c:crossAx val="49107712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="122356096"/>
+        <c:axId val="49107712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9525">
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="119200384"/>
+        <c:crossAx val="49105920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -816,8 +850,11 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -987,6 +1024,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1021,6 +1059,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1196,14 +1235,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="97.42578125" bestFit="1" customWidth="1"/>
@@ -1216,7 +1255,7 @@
     <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75">
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>9</v>
       </c>
@@ -1242,7 +1281,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G2" s="6">
         <f>C46</f>
         <v>3120</v>
@@ -1254,7 +1293,7 @@
         <v>41668</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="14" t="s">
         <v>51</v>
@@ -1281,7 +1320,7 @@
         <v>41669</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>1</v>
       </c>
@@ -1309,7 +1348,7 @@
         <v>41670</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>2</v>
       </c>
@@ -1337,7 +1376,7 @@
         <v>41671</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>3</v>
       </c>
@@ -1365,7 +1404,7 @@
         <v>41672</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>4</v>
       </c>
@@ -1393,7 +1432,7 @@
         <v>41673</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D8" s="6"/>
       <c r="E8" s="10" t="s">
         <v>68</v>
@@ -1409,7 +1448,7 @@
         <v>41674</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
       <c r="B9" s="14" t="s">
         <v>41</v>
@@ -1433,7 +1472,7 @@
         <v>41675</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <v>5</v>
       </c>
@@ -1458,7 +1497,7 @@
         <v>41676</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="18">
         <v>6</v>
       </c>
@@ -1481,7 +1520,7 @@
         <v>41677</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="18">
         <v>7</v>
       </c>
@@ -1504,7 +1543,7 @@
         <v>41678</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="D13" s="6"/>
       <c r="E13" s="11"/>
@@ -1519,7 +1558,7 @@
         <v>41679</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
       <c r="B14" s="14" t="s">
         <v>17</v>
@@ -1541,7 +1580,7 @@
         <v>41680</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
         <v>8</v>
       </c>
@@ -1564,7 +1603,7 @@
         <v>41681</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
         <v>9</v>
       </c>
@@ -1586,7 +1625,7 @@
         <v>41682</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>10</v>
       </c>
@@ -1600,7 +1639,7 @@
       <c r="E17" s="11"/>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
         <v>11</v>
       </c>
@@ -1613,7 +1652,7 @@
       <c r="D18" s="6"/>
       <c r="E18" s="11"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <v>12</v>
       </c>
@@ -1630,7 +1669,7 @@
         <v>222.85714285714286</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="18">
         <v>13</v>
       </c>
@@ -1643,12 +1682,12 @@
       <c r="D20" s="6"/>
       <c r="E20" s="12"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="D21" s="6"/>
       <c r="E21" s="12"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
       <c r="B22" s="14" t="s">
         <v>10</v>
@@ -1660,7 +1699,7 @@
       <c r="D22" s="6"/>
       <c r="E22" s="12"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
         <v>14</v>
       </c>
@@ -1673,7 +1712,7 @@
       <c r="D23" s="6"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <v>15</v>
       </c>
@@ -1686,7 +1725,7 @@
       <c r="D24" s="6"/>
       <c r="E24" s="12"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
         <v>16</v>
       </c>
@@ -1699,12 +1738,12 @@
       <c r="D25" s="6"/>
       <c r="E25" s="12"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="19"/>
       <c r="D26" s="6"/>
       <c r="E26" s="12"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
       <c r="B27" s="14" t="s">
         <v>5</v>
@@ -1715,7 +1754,7 @@
       </c>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="18">
         <v>17</v>
       </c>
@@ -1726,7 +1765,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="18">
         <v>18</v>
       </c>
@@ -1741,7 +1780,7 @@
       </c>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="18">
         <v>19</v>
       </c>
@@ -1756,14 +1795,14 @@
       </c>
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="19"/>
       <c r="D31" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="20"/>
       <c r="B32" s="15" t="s">
         <v>7</v>
@@ -1772,7 +1811,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="20">
         <v>20</v>
       </c>
@@ -1783,7 +1822,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="20">
         <v>21</v>
       </c>
@@ -1794,7 +1833,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="20">
         <v>22</v>
       </c>
@@ -1805,10 +1844,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="19"/>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="20"/>
       <c r="B37" s="15" t="s">
         <v>3</v>
@@ -1817,7 +1856,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="20">
         <v>23</v>
       </c>
@@ -1828,7 +1867,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="20">
         <v>24</v>
       </c>
@@ -1839,7 +1878,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="20">
         <v>25</v>
       </c>
@@ -1850,7 +1889,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="20">
         <v>26</v>
       </c>
@@ -1861,10 +1900,10 @@
         <v>180</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="19"/>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="20">
         <v>27</v>
       </c>
@@ -1875,7 +1914,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B46" s="14" t="s">
         <v>23</v>
       </c>
@@ -1884,12 +1923,12 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B47" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
       <c r="C49" s="6"/>
     </row>
@@ -1900,21 +1939,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="65.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -1925,7 +1964,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -1933,7 +1972,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -1941,12 +1980,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -1954,7 +1993,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>71</v>
       </c>
@@ -1962,7 +2001,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -1970,7 +2009,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -1978,7 +2017,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>35</v>
       </c>
